--- a/학습자료/단답형/국어_기출의지혜_속담제거.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_속담제거.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>복합어_분석</t>
         </is>
       </c>
     </row>
@@ -1733,6 +1733,2624 @@
       <c r="D59" t="inlineStr">
         <is>
           <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>龍蛇飛騰</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>畫蛇添足</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>針小棒大</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>눈물</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>작은집</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>가로지르다</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>못나다</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>값나가다</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>낯설다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>본받다</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>이리저리</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>곧잘</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>돌아가다</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>벗어나다</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>검버섯</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>오르내리다</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>먹거리</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>우짖다</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>뛰놀다</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>볼록거울</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>뾰족구두</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>산들바람</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>피땀</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>열쇠</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>길짐승</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>날짐승</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>첫사랑</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>눈발</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>서릿발</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>생겨나다</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>먹을거리</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>우리나라</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>우리말</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>우리글</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>날고기</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>강아지</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>잡아먹히다</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>되돌리다</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>건강하다</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>공부하다</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>유지하다</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>풋사랑</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>단호박</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>단팥죽</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>바가지</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>끗발</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>화장발</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>늦더위</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>늦가을</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>값어치</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>감발</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>꺾쇠</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>얽매다</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>검붉다</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>덮밥</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>부슬비</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>높푸르다</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>스며들다</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>새빨갛다</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>짙푸르다</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>젊은이</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>가로막다</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>새해</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>힘들다</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>접칼</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>돌아오다</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>굳세다</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>밤낮</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>굶주리다</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>빛나다</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>맛나다</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>별나다</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>보살피다</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>잠보</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>점쟁이</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>일꾼</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>덮개</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>넓이</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>조용하</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>군것질</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>선생님</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>먹히다</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>거멓다</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>맨손</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>군소리</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>시누이</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>빗나가다</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>새파랗다</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>개살구</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>헛웃음</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>낚시질</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>지우개</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>건어물</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>손짓</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>비지땀</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>사랑채</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>쌍동밤</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>장작불</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>돌보다</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>강추위</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>날강도</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>짓누르다</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>온갓</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>게을러빠지다</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>끝내</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>참꽃</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>한겨울</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>들개</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>움직이다</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>한낮</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>어느덧</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>들쑤시다</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>마음껏</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>불호령</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>여남은</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>마중</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>인간</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>한국인</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>까막까치</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>복합어</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_기출의지혜_속담제거.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_속담제거.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4354,6 +4354,1157 @@
         </is>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>報告</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>보고</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>體系的</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>체계적</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>犬馬之誠</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>명지바람</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>보드랍고 화창한 바람</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>하늬바람</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>서쪽에서 부는 바람</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>살바람</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>높새바람</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>反哺之孝</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>間於齊楚</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>蓋世之才</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>曲折</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>곡절</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>初有</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>초유</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>序幕</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>서막</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>敎養</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>교양</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>理論</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>이론</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>儒敎</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>유교</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>學問</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>학문</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>受容</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>수용</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1. 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일.
+2. [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일.</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>만수받이</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>윤똑똑이</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>트레바리</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1. 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건.
+2. 마음씨가 바르지 못한 사람을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>오그랑이</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>신문로(발음)</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>신문노</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>남대문로(발음)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>남대문노</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>추진력(발음)</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>추진녁</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>장맛비(발음)</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>장마삐, 장맏삐</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>등불(발음)</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>등뿔</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>콧날(발음)</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>콘날</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>예삿일(발음)</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>예산닐</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>집일(발음)</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>짐닐</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>인사말(발음)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>인사말,</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>머리말(발음)</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>머리말,</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>꼬리말(발음)</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>꼬리말,</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>고무줄(발음)</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>고무줄,</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>동아줄(발음)</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>동아줄,</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>회-수(回收)(발음)</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>회수, 훼수</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>콩-밥(발음)</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>콩밥,</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>인사말/인삿말</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>머리말/머릿말</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>꼬리말/꼬릿말</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>예사말/예삿말</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>노래말/노랫말</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>혼자말/혼잣말</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>존대말/존댓말</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>혼사말/혼삿말</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>본디말/본딧말</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>사이시옷</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>빨랫줄(발음)</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>빨래쭐, 빨랟쭐</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>횟수(回數)(발음)</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>회쑤, 홷쑤</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>아침밥(발음)</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>아침빱</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>피어(발음)</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>피어, 피여</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>되어(발음)</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>되어, 되여</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>이오(발음)</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>이오, 이요</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>아니오(발음)</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>아니오, 아니요</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>발음</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_기출의지혜_속담제거.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_속담제거.xlsx
@@ -991,12 +991,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>비지땀(분석)</t>
+          <t>離合集散</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>비지/땀, 합성어, 고유어/고유어</t>
+          <t>이합집산, 헤어졌다가 모였다가 하는 일</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1006,19 +1006,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>사랑채(분석)</t>
+          <t>格物致知</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>사랑/채, 합성어, 한자어/고유어</t>
+          <t>격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1028,19 +1028,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>쌍동밤(분석)</t>
+          <t>內科</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>쌍동/밤, 합성어, 한자어/고유어</t>
+          <t>내과</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1050,19 +1050,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>장작불(분석)</t>
+          <t>看護</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>장작/불, 합성어, 한자어/고유어</t>
+          <t>간호</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1072,19 +1072,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>돌보다(분석)</t>
+          <t>入院</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>돌/보다, 합성어, 비통사적합성어</t>
+          <t>입원</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1094,657 +1094,657 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>강추위(분석)</t>
+          <t>龍蛇飛騰</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>강/추위, 파생어</t>
+          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>날강도(분석)</t>
+          <t>畫蛇添足</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>날/강도, 파생어</t>
+          <t>화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>짓누르다(분석)</t>
+          <t>針小棒大</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>짓/누르다, 파생어</t>
+          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>온갓(분석)</t>
+          <t>눈물(합성어/파생어)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>온/갓, 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>게을러빠지다(분석)</t>
+          <t>작은집(합성어/파생어)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>게으르/어/빠지다, 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>끝내(분석)</t>
+          <t>가로지르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>끝/내, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>참꽃(분석)</t>
+          <t>못나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>참/꽃, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>한겨울(분석)</t>
+          <t>값나가다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>한/겨울, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>들개(분석)</t>
+          <t>낯설다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>들/개, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>움직이다(분석)</t>
+          <t>본받다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>움직/이다, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>한낮(분석)</t>
+          <t>이리저리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한/낮, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>어느덧(분석)</t>
+          <t>곧잘(합성어/파생어)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>어느/덧, 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>들쑤시다(분석)</t>
+          <t>돌아가다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>들/쑤시다, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>마음껏(분석)</t>
+          <t>벗어나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>마음/껏, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>불호령(분석)</t>
+          <t>검버섯(합성어/파생어)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>불/호령, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>여남은(분석)</t>
+          <t>오르내리다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>열/남다, 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>값어치(분석)</t>
+          <t>먹거리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>값/어치, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>바가지(분석)</t>
+          <t>우짖다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>박/아지, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>마중(분석)</t>
+          <t>뛰놀다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>맞/웅, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>곧잘(분석)</t>
+          <t>볼록거울(합성어/파생어)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>곧/잘, 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>인간(분석)</t>
+          <t>뾰족구두(합성어/파생어)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>인/간, 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>한국인(분석)</t>
+          <t>산들바람(합성어/파생어)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>한국/인, 파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>얽매다(분석)</t>
+          <t>피땀(합성어/파생어)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>얽/매다, 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>까막까치(분석)</t>
+          <t>열쇠(합성어/파생어)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>까막/까치, 합성어, 까마귀/까치</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>복합어_분석</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>離合集散</t>
+          <t>길짐승(합성어/파생어)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>이합집산, 헤어졌다가 모였다가 하는 일</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>格物致知</t>
+          <t>날짐승(합성어/파생어)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>격물치지, 사물의 이치를 구명하여 자기의 지식을 확고하게 함</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>內科</t>
+          <t>첫사랑(합성어/파생어)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>내과</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>看護</t>
+          <t>눈발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>간호</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>入院</t>
+          <t>서릿발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>입원</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>龍蛇飛騰</t>
+          <t>생겨나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1754,19 +1754,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>畫蛇添足</t>
+          <t>먹을거리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1776,19 +1776,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>針小棒大</t>
+          <t>우리나라(합성어/파생어)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1798,19 +1798,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>눈물</t>
+          <t>우리말(합성어/파생어)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1827,12 +1827,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>작은집</t>
+          <t>우리글(합성어/파생어)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1849,12 +1849,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>가로지르다</t>
+          <t>날고기(합성어/파생어)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1871,12 +1871,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>못나다</t>
+          <t>강아지(합성어/파생어)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1893,12 +1893,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>값나가다</t>
+          <t>잡아먹히다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1915,12 +1915,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>낯설다</t>
+          <t>되돌리다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1937,12 +1937,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>본받다</t>
+          <t>건강하다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1959,12 +1959,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>이리저리</t>
+          <t>공부하다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1981,12 +1981,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>곧잘</t>
+          <t>유지하다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>돌아가다</t>
+          <t>풋사랑(합성어/파생어)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2025,12 +2025,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>벗어나다</t>
+          <t>단호박(합성어/파생어)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2047,12 +2047,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>검버섯</t>
+          <t>단팥죽(합성어/파생어)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2069,12 +2069,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>오르내리다</t>
+          <t>바가지(합성어/파생어)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2091,12 +2091,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>먹거리</t>
+          <t>끗발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2113,12 +2113,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>우짖다</t>
+          <t>화장발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2135,12 +2135,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>뛰놀다</t>
+          <t>늦더위(합성어/파생어)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2157,12 +2157,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>볼록거울</t>
+          <t>늦가을(합성어/파생어)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2179,12 +2179,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>뾰족구두</t>
+          <t>값어치(합성어/파생어)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2201,12 +2201,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>산들바람</t>
+          <t>감발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2223,12 +2223,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>피땀</t>
+          <t>꺾쇠(합성어/파생어)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2245,12 +2245,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>열쇠</t>
+          <t>얽매다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2267,12 +2267,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>길짐승</t>
+          <t>검붉다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2289,12 +2289,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>날짐승</t>
+          <t>덮밥(합성어/파생어)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2311,12 +2311,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>첫사랑</t>
+          <t>부슬비(합성어/파생어)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2333,12 +2333,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>눈발</t>
+          <t>높푸르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2355,12 +2355,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>서릿발</t>
+          <t>스며들다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>생겨나다</t>
+          <t>새빨갛다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2399,12 +2399,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>먹을거리</t>
+          <t>짙푸르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2421,12 +2421,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>우리나라</t>
+          <t>젊은이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2443,12 +2443,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>우리말</t>
+          <t>가로막다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2465,12 +2465,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>우리글</t>
+          <t>새해(합성어/파생어)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2487,12 +2487,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>날고기</t>
+          <t>힘들다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2509,12 +2509,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>강아지</t>
+          <t>접칼(합성어/파생어)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2531,12 +2531,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>잡아먹히다</t>
+          <t>돌아오다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2553,12 +2553,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>되돌리다</t>
+          <t>굳세다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2575,12 +2575,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>건강하다</t>
+          <t>밤낮(합성어/파생어)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2597,12 +2597,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>공부하다</t>
+          <t>굶주리다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2619,12 +2619,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>유지하다</t>
+          <t>빛나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2641,12 +2641,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>풋사랑</t>
+          <t>맛나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2663,12 +2663,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>단호박</t>
+          <t>별나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2685,12 +2685,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>단팥죽</t>
+          <t>보살피다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2707,12 +2707,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>바가지</t>
+          <t>잠보(합성어/파생어)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2729,12 +2729,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>끗발</t>
+          <t>점쟁이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2751,12 +2751,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>화장발</t>
+          <t>일꾼(합성어/파생어)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2773,12 +2773,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>늦더위</t>
+          <t>덮개(합성어/파생어)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2795,12 +2795,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>늦가을</t>
+          <t>넓이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2817,12 +2817,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>값어치</t>
+          <t>조용하(합성어/파생어)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2839,12 +2839,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>감발</t>
+          <t>군것질(합성어/파생어)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2861,12 +2861,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>꺾쇠</t>
+          <t>선생님(합성어/파생어)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2883,12 +2883,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>얽매다</t>
+          <t>먹히다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2905,12 +2905,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>검붉다</t>
+          <t>거멓다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2927,12 +2927,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>덮밥</t>
+          <t>맨손(합성어/파생어)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2949,12 +2949,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>부슬비</t>
+          <t>군소리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2971,12 +2971,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>높푸르다</t>
+          <t>시누이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2993,12 +2993,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>스며들다</t>
+          <t>빗나가다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3015,12 +3015,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>새빨갛다</t>
+          <t>새파랗다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3037,12 +3037,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>짙푸르다</t>
+          <t>개살구(합성어/파생어)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3059,12 +3059,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>젊은이</t>
+          <t>헛웃음(합성어/파생어)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3081,12 +3081,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>가로막다</t>
+          <t>낚시질(합성어/파생어)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3103,12 +3103,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>새해</t>
+          <t>지우개(합성어/파생어)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3125,12 +3125,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>힘들다</t>
+          <t>건어물(합성어/파생어)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3147,12 +3147,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>접칼</t>
+          <t>손짓(합성어/파생어)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3169,12 +3169,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>돌아오다</t>
+          <t>비지땀(합성어/파생어)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3191,12 +3191,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>굳세다</t>
+          <t>사랑채(합성어/파생어)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3213,12 +3213,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>밤낮</t>
+          <t>쌍동밤(합성어/파생어)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3235,12 +3235,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>굶주리다</t>
+          <t>장작불(합성어/파생어)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3257,12 +3257,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>빛나다</t>
+          <t>돌보다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3279,12 +3279,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>맛나다</t>
+          <t>강추위(합성어/파생어)</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3301,12 +3301,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>별나다</t>
+          <t>날강도(합성어/파생어)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3323,12 +3323,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>보살피다</t>
+          <t>짓누르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3345,12 +3345,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>잠보</t>
+          <t>온갓(합성어/파생어)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3367,12 +3367,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>점쟁이</t>
+          <t>게을러빠지다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3389,12 +3389,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>일꾼</t>
+          <t>끝내(합성어/파생어)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3411,12 +3411,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>덮개</t>
+          <t>참꽃(합성어/파생어)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3433,12 +3433,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>넓이</t>
+          <t>한겨울(합성어/파생어)</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3455,12 +3455,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>조용하</t>
+          <t>들개(합성어/파생어)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3477,12 +3477,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>군것질</t>
+          <t>움직이다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3499,12 +3499,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>선생님</t>
+          <t>한낮(합성어/파생어)</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3521,12 +3521,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>먹히다</t>
+          <t>어느덧(합성어/파생어)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3543,12 +3543,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>거멓다</t>
+          <t>들쑤시다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3565,12 +3565,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>맨손</t>
+          <t>마음껏(합성어/파생어)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3587,12 +3587,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>군소리</t>
+          <t>불호령(합성어/파생어)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3609,12 +3609,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>시누이</t>
+          <t>여남은(합성어/파생어)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3631,12 +3631,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>빗나가다</t>
+          <t>마중(합성어/파생어)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3653,12 +3653,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>새파랗다</t>
+          <t>인간(합성어/파생어)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3675,12 +3675,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>개살구</t>
+          <t>한국인(합성어/파생어)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3697,12 +3697,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>헛웃음</t>
+          <t>까막까치(합성어/파생어)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3719,12 +3719,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>낚시질</t>
+          <t>報告</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>보고</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3734,19 +3734,19 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>지우개</t>
+          <t>體系的</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>체계적</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3756,19 +3756,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>건어물</t>
+          <t>犬馬之誠</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3778,19 +3779,19 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>손짓</t>
+          <t>보드랍고 화창한 바람</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>명지바람</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3800,19 +3801,19 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>비지땀</t>
+          <t>서쪽에서 부는 바람</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>하늬바람</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3822,19 +3823,19 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>사랑채</t>
+          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>살바람</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3844,19 +3845,19 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>쌍동밤</t>
+          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>높새바람</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3866,19 +3867,19 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>장작불</t>
+          <t>反哺之孝</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3888,19 +3889,19 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>돌보다</t>
+          <t>間於齊楚</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3910,19 +3911,19 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>강추위</t>
+          <t>蓋世之才</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3932,19 +3933,19 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>날강도</t>
+          <t>曲折</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>곡절</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3954,19 +3955,19 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>짓누르다</t>
+          <t>初有</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>초유</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3976,19 +3977,19 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>온갓</t>
+          <t>序幕</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>서막</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3998,19 +3999,19 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>게을러빠지다</t>
+          <t>敎養</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>교양</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4020,19 +4021,19 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>끝내</t>
+          <t>理論</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>이론</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4042,19 +4043,19 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>참꽃</t>
+          <t>儒敎</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>유교</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4064,19 +4065,19 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>한겨울</t>
+          <t>學問</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>학문</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4086,19 +4087,19 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>들개</t>
+          <t>受容</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>수용</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4108,19 +4109,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>움직이다</t>
+          <t>1. 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일.
+2. [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>만수받이</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4130,19 +4132,19 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>한낮</t>
+          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>윤똑똑이</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4152,19 +4154,19 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>어느덧</t>
+          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>트레바리</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4174,19 +4176,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>들쑤시다</t>
+          <t>1. 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건.
+2. 마음씨가 바르지 못한 사람을 비유적으로 이르는 말.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>오그랑이</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4196,19 +4199,19 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>고유어</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>마음껏</t>
+          <t>신문로(발음)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>신문노</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4218,19 +4221,19 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>불호령</t>
+          <t>남대문로(발음)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>남대문노</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4240,19 +4243,19 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>여남은</t>
+          <t>추진력(발음)</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>추진녁</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4262,19 +4265,19 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>마중</t>
+          <t>장맛비(발음)</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>장마삐, 장맏삐</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4284,19 +4287,19 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>인간</t>
+          <t>등불(발음)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>등뿔</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4306,19 +4309,19 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>한국인</t>
+          <t>콧날(발음)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>콘날</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4328,19 +4331,19 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>까막까치</t>
+          <t>예삿일(발음)</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>예산닐</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4350,19 +4353,19 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>복합어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>報告</t>
+          <t>집일(발음)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>보고</t>
+          <t>짐닐</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4372,19 +4375,19 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>體系的</t>
+          <t>인사말(발음)</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>체계적</t>
+          <t>인사말,</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4394,20 +4397,19 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>犬馬之誠</t>
+          <t>머리말(발음)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
-남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
+          <t>머리말,</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4417,19 +4419,19 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>명지바람</t>
+          <t>꼬리말(발음)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>보드랍고 화창한 바람</t>
+          <t>꼬리말,</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4439,19 +4441,19 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>고유어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>하늬바람</t>
+          <t>고무줄(발음)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>서쪽에서 부는 바람</t>
+          <t>고무줄,</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4461,19 +4463,19 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>고유어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>살바람</t>
+          <t>동아줄(발음)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
+          <t>동아줄,</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4483,19 +4485,19 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>고유어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>높새바람</t>
+          <t>회수(回收)(발음)</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
+          <t>회수, 훼수</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4505,19 +4507,19 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>고유어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>反哺之孝</t>
+          <t>콩밥(발음)</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
+          <t>콩밥,</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4527,20 +4529,18 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>間於齊楚</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
-        </is>
+          <t>인사말/인삿말</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4549,20 +4549,18 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>사이시옷</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>蓋世之才</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
-        </is>
+          <t>머리말/머릿말</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4571,20 +4569,18 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>사이시옷</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>曲折</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>곡절</t>
-        </is>
+          <t>꼬리말/꼬릿말</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4593,20 +4589,18 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사이시옷</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>初有</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>초유</t>
-        </is>
+          <t>예사말/예삿말</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4615,20 +4609,18 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사이시옷</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>序幕</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>서막</t>
-        </is>
+          <t>노래말/노랫말</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4637,20 +4629,18 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사이시옷</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>敎養</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>교양</t>
-        </is>
+          <t>혼자말/혼잣말</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4659,20 +4649,18 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사이시옷</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>理論</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>이론</t>
-        </is>
+          <t>존대말/존댓말</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4681,20 +4669,18 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사이시옷</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>儒敎</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>유교</t>
-        </is>
+          <t>혼사말/혼삿말</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4703,20 +4689,18 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사이시옷</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>學問</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>학문</t>
-        </is>
+          <t>본디말/본딧말</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4725,19 +4709,19 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사이시옷</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>受容</t>
+          <t>빨랫줄(발음)</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>수용</t>
+          <t>빨래쭐, 빨랟쭐</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4747,20 +4731,19 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1. 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일.
-2. [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일.</t>
+          <t>횟수(回數)(발음)</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>만수받이</t>
+          <t>회쑤, 홷쑤</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4770,19 +4753,19 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>고유어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말.</t>
+          <t>아침밥(발음)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>윤똑똑이</t>
+          <t>아침빱</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4792,19 +4775,19 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>고유어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말.</t>
+          <t>피어(발음)</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>트레바리</t>
+          <t>피어, 피여</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4814,20 +4797,19 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>고유어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1. 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건.
-2. 마음씨가 바르지 못한 사람을 비유적으로 이르는 말.</t>
+          <t>되어(발음)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>오그랑이</t>
+          <t>되어, 되여</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4837,19 +4819,19 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>고유어</t>
+          <t>발음</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>신문로(발음)</t>
+          <t>이오(발음)</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>신문노</t>
+          <t>이오, 이요</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4866,12 +4848,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>남대문로(발음)</t>
+          <t>아니오(발음)</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>남대문노</t>
+          <t>아니오, 아니요</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4888,620 +4870,638 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>추진력(발음)</t>
+          <t>朋友有信</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>추진녁</t>
+          <t>붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>장맛비(발음)</t>
+          <t>長幼有序</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>장마삐, 장맏삐</t>
+          <t>장유유서, 오륜(五倫)의 하나. 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음.</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>등불(발음)</t>
+          <t>君臣有義</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>등뿔</t>
+          <t>군신유의, 오륜(五倫)의 하나. 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>콧날(발음)</t>
+          <t>夫婦有別</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>콘날</t>
+          <t>부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>예삿일(발음)</t>
+          <t>父子有親</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>예산닐</t>
+          <t>부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>집일(발음)</t>
+          <t>손쉽다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>짐닐</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>인사말(발음)</t>
+          <t>시름없다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>인사말,</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>머리말(발음)</t>
+          <t>남다르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>머리말,</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>꼬리말(발음)</t>
+          <t>기와집(합성어/파생어)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>꼬리말,</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>고무줄(발음)</t>
+          <t>치솟다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>고무줄,</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>동아줄(발음)</t>
+          <t>고무신(합성어/파생어)</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>동아줄,</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>회-수(回收)(발음)</t>
+          <t>놀이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>회수, 훼수</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>콩-밥(발음)</t>
+          <t>마침내(합성어/파생어)</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>콩밥,</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>인사말/인삿말</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>1</v>
+          <t>봄내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>머리말/머릿말</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>1</v>
+          <t>여름내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>꼬리말/꼬릿말</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>1</v>
+          <t>저녁내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>예사말/예삿말</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>1</v>
+          <t>들장미(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>노래말/노랫말</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>2</v>
+          <t>들국화(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>혼자말/혼잣말</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>2</v>
+          <t>끄덕이다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>존대말/존댓말</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>2</v>
+          <t>망설이다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>혼사말/혼삿말</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>2</v>
+          <t>반짝이다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>본디말/본딧말</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>2</v>
+          <t>한껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>사이시옷</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>빨랫줄(발음)</t>
+          <t>힘껏(합성어/파생어)</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>빨래쭐, 빨랟쭐</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>횟수(回數)(발음)</t>
+          <t>눈치껏(합성어/파생어)</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>회쑤, 홷쑤</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>아침밥(발음)</t>
+          <t>정성껏(합성어/파생어)</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>아침빱</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>피어(발음)</t>
+          <t>성의껏(합성어/파생어)</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>피어, 피여</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>되어(발음)</t>
+          <t>지금껏(합성어/파생어)</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>되어, 되여</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>이오(발음)</t>
+          <t>아직껏(합성어/파생어)</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>이오, 이요</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>아니오(발음)</t>
+          <t>여태껏(합성어/파생어)</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>아니오, 아니요</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>3일차</t>
+          <t>4일차</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>발음</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
